--- a/docs/Examples/Intro_Example_Petrolog_FC/PetrologCalculations.xlsx
+++ b/docs/Examples/Intro_Example_Petrolog_FC/PetrologCalculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\docs\Examples\Data_Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\docs\Examples\Intro_Example_Petrolog_FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B950EF6C-208C-4CCD-A51C-88B715415710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4E6D5C-1C89-411A-B32C-78D50329F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15510" activeTab="2" xr2:uid="{0529BD8F-C88F-4E4E-8348-A2BAF1D1D7E9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
   <si>
     <t xml:space="preserve"> SiO2_magma</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t xml:space="preserve">Olv-Ford83  </t>
+  </si>
+  <si>
+    <t>fo2_calc</t>
+  </si>
+  <si>
+    <t>fo2_e_calc</t>
   </si>
 </sst>
 </file>
@@ -350,17 +356,38 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -370,9 +397,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="19" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2592,7 +2624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90920F11-4703-4152-8398-A8A0BA1D5B50}">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2709,15 +2743,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572120C9-D3FD-4F41-979E-C1B6093D433B}">
-  <dimension ref="A1:BG32"/>
+  <dimension ref="A1:BI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="5" width="8.7265625" style="2"/>
+    <col min="15" max="15" width="8.7265625" style="5"/>
+    <col min="18" max="19" width="8.7265625" style="2"/>
+    <col min="49" max="49" width="23.36328125" customWidth="1"/>
+    <col min="50" max="50" width="15.453125" customWidth="1"/>
+    <col min="60" max="60" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2727,10 +2769,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -2760,7 +2802,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -2769,10 +2811,10 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -2892,187 +2934,201 @@
       <c r="BF1" t="s">
         <v>57</v>
       </c>
+      <c r="BH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>49.901000000000003</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0.99809999999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>14.971500000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.9839</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>8.0963999999999992</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>9.98E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>9.9763000000000002</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>11.9772</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>2.4952999999999999</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.1996</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>9.98E-2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>9.98E-2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>697.8</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>99.8</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>49.901000000000003</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>0.99809999999999999</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>14.971500000000001</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>0.9839</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>8.0963999999999992</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>9.98E-2</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>9.9763000000000002</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>11.9772</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>2.4952999999999999</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>0.1996</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>9.98E-2</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="3">
         <v>9.98E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>697.8</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>99.8</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="3">
         <v>40.2986</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
         <v>11.7372</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
+      <c r="AH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
         <v>46.912100000000002</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
+      <c r="AJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3">
         <v>8257.6</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="3">
         <v>10</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="3">
         <v>1253.2809999999999</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="3">
         <v>1253.2809999999999</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="3">
         <v>87.69</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="3">
         <v>0.308</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="3">
         <v>87.69</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="3">
         <v>1</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="3">
         <v>-7.72</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="3">
         <v>-0.7</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="3">
         <v>2.6829999999999998</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="3">
         <v>6.25</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="3">
         <v>99.99</v>
       </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
+      <c r="BD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="3">
         <v>0.01</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BF2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2" s="4">
         <v>0.34809027777777773</v>
       </c>
+      <c r="BH2" s="3">
+        <f>10^AW2</f>
+        <v>1.9054607179632456E-8</v>
+      </c>
+      <c r="BI2" s="3">
+        <f>EXP(AW2)</f>
+        <v>4.4386060390287402E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>49.997799999999998</v>
       </c>
@@ -3082,10 +3138,10 @@
       <c r="C3">
         <v>15.122</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.97430000000000005</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>8.0754000000000001</v>
       </c>
       <c r="F3">
@@ -3115,7 +3171,7 @@
       <c r="N3">
         <v>100.7</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="5">
         <v>49.997799999999998</v>
       </c>
       <c r="P3">
@@ -3124,10 +3180,10 @@
       <c r="Q3">
         <v>15.122</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>0.97430000000000005</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>8.0754000000000001</v>
       </c>
       <c r="T3">
@@ -3251,7 +3307,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>50.098199999999999</v>
       </c>
@@ -3261,10 +3317,10 @@
       <c r="C4">
         <v>15.276999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.96489999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>8.0492000000000008</v>
       </c>
       <c r="F4">
@@ -3294,7 +3350,7 @@
       <c r="N4">
         <v>101.6</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="5">
         <v>50.098199999999999</v>
       </c>
       <c r="P4">
@@ -3303,10 +3359,10 @@
       <c r="Q4">
         <v>15.276999999999999</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>0.96489999999999998</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>8.0492000000000008</v>
       </c>
       <c r="T4">
@@ -3430,7 +3486,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50.200299999999999</v>
       </c>
@@ -3440,10 +3496,10 @@
       <c r="C5">
         <v>15.4337</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.95609999999999995</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>8.0177999999999994</v>
       </c>
       <c r="F5">
@@ -3473,7 +3529,7 @@
       <c r="N5">
         <v>102.6</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <v>50.200299999999999</v>
       </c>
       <c r="P5">
@@ -3482,10 +3538,10 @@
       <c r="Q5">
         <v>15.4337</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>0.95609999999999995</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>8.0177999999999994</v>
       </c>
       <c r="T5">
@@ -3609,7 +3665,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>50.306199999999997</v>
       </c>
@@ -3619,10 +3675,10 @@
       <c r="C6">
         <v>15.595000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.94750000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>7.9802</v>
       </c>
       <c r="F6">
@@ -3652,7 +3708,7 @@
       <c r="N6">
         <v>103.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="5">
         <v>50.306199999999997</v>
       </c>
       <c r="P6">
@@ -3661,10 +3717,10 @@
       <c r="Q6">
         <v>15.595000000000001</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>0.94750000000000001</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <v>7.9802</v>
       </c>
       <c r="T6">
@@ -3788,7 +3844,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50.414000000000001</v>
       </c>
@@ -3798,10 +3854,10 @@
       <c r="C7">
         <v>15.758100000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.93930000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>7.9366000000000003</v>
       </c>
       <c r="F7">
@@ -3831,7 +3887,7 @@
       <c r="N7">
         <v>104.5</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <v>50.414000000000001</v>
       </c>
       <c r="P7">
@@ -3840,10 +3896,10 @@
       <c r="Q7">
         <v>15.758100000000001</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>0.93930000000000002</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>7.9366000000000003</v>
       </c>
       <c r="T7">
@@ -3967,7 +4023,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50.526000000000003</v>
       </c>
@@ -3977,10 +4033,10 @@
       <c r="C8">
         <v>15.926</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.93140000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>7.8856000000000002</v>
       </c>
       <c r="F8">
@@ -4010,7 +4066,7 @@
       <c r="N8">
         <v>105.5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="5">
         <v>50.526000000000003</v>
       </c>
       <c r="P8">
@@ -4019,10 +4075,10 @@
       <c r="Q8">
         <v>15.926</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>0.93140000000000001</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <v>7.8856000000000002</v>
       </c>
       <c r="T8">
@@ -4146,7 +4202,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50.641300000000001</v>
       </c>
@@ -4156,10 +4212,10 @@
       <c r="C9">
         <v>16.097300000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.92369999999999997</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>7.8269000000000002</v>
       </c>
       <c r="F9">
@@ -4189,7 +4245,7 @@
       <c r="N9">
         <v>106.5</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="5">
         <v>50.641300000000001</v>
       </c>
       <c r="P9">
@@ -4198,10 +4254,10 @@
       <c r="Q9">
         <v>16.097300000000001</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>0.92369999999999997</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <v>7.8269000000000002</v>
       </c>
       <c r="T9">
@@ -4325,7 +4381,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50.760100000000001</v>
       </c>
@@ -4335,10 +4391,10 @@
       <c r="C10">
         <v>16.272099999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.9163</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>7.76</v>
       </c>
       <c r="F10">
@@ -4368,7 +4424,7 @@
       <c r="N10">
         <v>107.6</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="5">
         <v>50.760100000000001</v>
       </c>
       <c r="P10">
@@ -4377,10 +4433,10 @@
       <c r="Q10">
         <v>16.272099999999998</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <v>0.9163</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="2">
         <v>7.76</v>
       </c>
       <c r="T10">
@@ -4504,7 +4560,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50.883600000000001</v>
       </c>
@@ -4514,10 +4570,10 @@
       <c r="C11">
         <v>16.452100000000002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.90890000000000004</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>7.6833</v>
       </c>
       <c r="F11">
@@ -4547,7 +4603,7 @@
       <c r="N11">
         <v>108.7</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="5">
         <v>50.883600000000001</v>
       </c>
       <c r="P11">
@@ -4556,10 +4612,10 @@
       <c r="Q11">
         <v>16.452100000000002</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>0.90890000000000004</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <v>7.6833</v>
       </c>
       <c r="T11">
@@ -4683,7 +4739,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>51.01</v>
       </c>
@@ -4693,10 +4749,10 @@
       <c r="C12">
         <v>16.6341</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.90159999999999996</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>7.5972999999999997</v>
       </c>
       <c r="F12">
@@ -4726,7 +4782,7 @@
       <c r="N12">
         <v>109.7</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>51.01</v>
       </c>
       <c r="P12">
@@ -4735,10 +4791,10 @@
       <c r="Q12">
         <v>16.6341</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>0.90159999999999996</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="2">
         <v>7.5972999999999997</v>
       </c>
       <c r="T12">
@@ -4862,7 +4918,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>51.1417</v>
       </c>
@@ -4872,10 +4928,10 @@
       <c r="C13">
         <v>16.821400000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.89400000000000002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>7.4996999999999998</v>
       </c>
       <c r="F13">
@@ -4905,7 +4961,7 @@
       <c r="N13">
         <v>110.8</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="5">
         <v>51.1417</v>
       </c>
       <c r="P13">
@@ -4914,10 +4970,10 @@
       <c r="Q13">
         <v>16.821400000000001</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <v>0.89400000000000002</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="2">
         <v>7.4996999999999998</v>
       </c>
       <c r="T13">
@@ -5041,7 +5097,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>51.277900000000002</v>
       </c>
@@ -5051,10 +5107,10 @@
       <c r="C14">
         <v>17.012599999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.88590000000000002</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>7.3901000000000003</v>
       </c>
       <c r="F14">
@@ -5084,7 +5140,7 @@
       <c r="N14">
         <v>112</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="5">
         <v>51.277900000000002</v>
       </c>
       <c r="P14">
@@ -5093,10 +5149,10 @@
       <c r="Q14">
         <v>17.012599999999999</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>0.88590000000000002</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <v>7.3901000000000003</v>
       </c>
       <c r="T14">
@@ -5220,7 +5276,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>51.418799999999997</v>
       </c>
@@ -5230,10 +5286,10 @@
       <c r="C15">
         <v>17.207699999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.87719999999999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>7.2672999999999996</v>
       </c>
       <c r="F15">
@@ -5263,7 +5319,7 @@
       <c r="N15">
         <v>113.1</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="5">
         <v>51.418799999999997</v>
       </c>
       <c r="P15">
@@ -5272,10 +5328,10 @@
       <c r="Q15">
         <v>17.207699999999999</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>0.87719999999999998</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="2">
         <v>7.2672999999999996</v>
       </c>
       <c r="T15">
@@ -5399,7 +5455,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>51.566299999999998</v>
       </c>
@@ -5409,10 +5465,10 @@
       <c r="C16">
         <v>17.4085</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.86719999999999997</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>7.1288</v>
       </c>
       <c r="F16">
@@ -5442,7 +5498,7 @@
       <c r="N16">
         <v>114.3</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="5">
         <v>51.566299999999998</v>
       </c>
       <c r="P16">
@@ -5451,10 +5507,10 @@
       <c r="Q16">
         <v>17.4085</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="2">
         <v>0.86719999999999997</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="2">
         <v>7.1288</v>
       </c>
       <c r="T16">
@@ -5588,10 +5644,10 @@
       <c r="C17">
         <v>17.613299999999999</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.85560000000000003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>6.9741999999999997</v>
       </c>
       <c r="F17">
@@ -5621,7 +5677,7 @@
       <c r="N17">
         <v>115.5</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="5">
         <v>51.719299999999997</v>
       </c>
       <c r="P17">
@@ -5630,10 +5686,10 @@
       <c r="Q17">
         <v>17.613299999999999</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="2">
         <v>0.85560000000000003</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="2">
         <v>6.9741999999999997</v>
       </c>
       <c r="T17">
@@ -5767,10 +5823,10 @@
       <c r="C18">
         <v>17.822399999999998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.84150000000000003</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>6.8018999999999998</v>
       </c>
       <c r="F18">
@@ -5800,7 +5856,7 @@
       <c r="N18">
         <v>116.8</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="5">
         <v>51.878599999999999</v>
       </c>
       <c r="P18">
@@ -5809,10 +5865,10 @@
       <c r="Q18">
         <v>17.822399999999998</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <v>0.84150000000000003</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="2">
         <v>6.8018999999999998</v>
       </c>
       <c r="T18">
@@ -5946,10 +6002,10 @@
       <c r="C19">
         <v>18.037600000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>6.6083999999999996</v>
       </c>
       <c r="F19">
@@ -5979,7 +6035,7 @@
       <c r="N19">
         <v>118</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="5">
         <v>52.045900000000003</v>
       </c>
       <c r="P19">
@@ -5988,10 +6044,10 @@
       <c r="Q19">
         <v>18.037600000000001</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <v>0.82399999999999995</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="2">
         <v>6.6083999999999996</v>
       </c>
       <c r="T19">
@@ -6125,10 +6181,10 @@
       <c r="C20">
         <v>18.257200000000001</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>6.3929</v>
       </c>
       <c r="F20">
@@ -6158,7 +6214,7 @@
       <c r="N20">
         <v>119.3</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="5">
         <v>52.220700000000001</v>
       </c>
       <c r="P20">
@@ -6167,10 +6223,10 @@
       <c r="Q20">
         <v>18.257200000000001</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="2">
         <v>6.3929</v>
       </c>
       <c r="T20">
@@ -6304,10 +6360,10 @@
       <c r="C21">
         <v>18.4832</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.77390000000000003</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>6.1510999999999996</v>
       </c>
       <c r="F21">
@@ -6337,7 +6393,7 @@
       <c r="N21">
         <v>120.7</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="5">
         <v>52.405200000000001</v>
       </c>
       <c r="P21">
@@ -6346,10 +6402,10 @@
       <c r="Q21">
         <v>18.4832</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="2">
         <v>0.77390000000000003</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="2">
         <v>6.1510999999999996</v>
       </c>
       <c r="T21">
@@ -6483,10 +6539,10 @@
       <c r="C22">
         <v>18.713799999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.73819999999999997</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>5.8817000000000004</v>
       </c>
       <c r="F22">
@@ -6516,7 +6572,7 @@
       <c r="N22">
         <v>122</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="5">
         <v>52.5989</v>
       </c>
       <c r="P22">
@@ -6525,10 +6581,10 @@
       <c r="Q22">
         <v>18.713799999999999</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <v>0.73819999999999997</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="2">
         <v>5.8817000000000004</v>
       </c>
       <c r="T22">
@@ -6662,10 +6718,10 @@
       <c r="C23">
         <v>18.9511</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.69259999999999999</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>5.5789999999999997</v>
       </c>
       <c r="F23">
@@ -6695,7 +6751,7 @@
       <c r="N23">
         <v>123.4</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="5">
         <v>52.804400000000001</v>
       </c>
       <c r="P23">
@@ -6704,10 +6760,10 @@
       <c r="Q23">
         <v>18.9511</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="2">
         <v>0.69259999999999999</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="2">
         <v>5.5789999999999997</v>
       </c>
       <c r="T23">
@@ -6841,10 +6897,10 @@
       <c r="C24">
         <v>19.193300000000001</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0.63570000000000004</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>5.2411000000000003</v>
       </c>
       <c r="F24">
@@ -6874,7 +6930,7 @@
       <c r="N24">
         <v>124.8</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="5">
         <v>53.0214</v>
       </c>
       <c r="P24">
@@ -6883,10 +6939,10 @@
       <c r="Q24">
         <v>19.193300000000001</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="2">
         <v>0.63570000000000004</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="2">
         <v>5.2411000000000003</v>
       </c>
       <c r="T24">
@@ -7020,10 +7076,10 @@
       <c r="C25">
         <v>19.442499999999999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>0.5655</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>4.8598999999999997</v>
       </c>
       <c r="F25">
@@ -7053,7 +7109,7 @@
       <c r="N25">
         <v>126.3</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="5">
         <v>53.252800000000001</v>
       </c>
       <c r="P25">
@@ -7062,10 +7118,10 @@
       <c r="Q25">
         <v>19.442499999999999</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="2">
         <v>0.5655</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="2">
         <v>4.8598999999999997</v>
       </c>
       <c r="T25">
@@ -7199,10 +7255,10 @@
       <c r="C26">
         <v>19.698899999999998</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>0.4819</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>4.4279999999999999</v>
       </c>
       <c r="F26">
@@ -7232,7 +7288,7 @@
       <c r="N26">
         <v>127.8</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="5">
         <v>53.500300000000003</v>
       </c>
       <c r="P26">
@@ -7241,10 +7297,10 @@
       <c r="Q26">
         <v>19.698899999999998</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="2">
         <v>0.4819</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="2">
         <v>4.4279999999999999</v>
       </c>
       <c r="T26">
@@ -7378,10 +7434,10 @@
       <c r="C27">
         <v>19.960699999999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>0.38729999999999998</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>3.9405999999999999</v>
       </c>
       <c r="F27">
@@ -7411,7 +7467,7 @@
       <c r="N27">
         <v>129.30000000000001</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="5">
         <v>53.763199999999998</v>
       </c>
       <c r="P27">
@@ -7420,10 +7476,10 @@
       <c r="Q27">
         <v>19.960699999999999</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="2">
         <v>0.38729999999999998</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="2">
         <v>3.9405999999999999</v>
       </c>
       <c r="T27">
@@ -7557,10 +7613,10 @@
       <c r="C28">
         <v>20.229900000000001</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.28610000000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>3.3839000000000001</v>
       </c>
       <c r="F28">
@@ -7590,7 +7646,7 @@
       <c r="N28">
         <v>130.9</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="5">
         <v>54.044699999999999</v>
       </c>
       <c r="P28">
@@ -7599,10 +7655,10 @@
       <c r="Q28">
         <v>20.229900000000001</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="2">
         <v>0.28610000000000002</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="2">
         <v>3.3839000000000001</v>
       </c>
       <c r="T28">
@@ -7736,10 +7792,10 @@
       <c r="C29">
         <v>20.507000000000001</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0.18659999999999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>2.7469000000000001</v>
       </c>
       <c r="F29">
@@ -7769,7 +7825,7 @@
       <c r="N29">
         <v>132.5</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="5">
         <v>54.345500000000001</v>
       </c>
       <c r="P29">
@@ -7778,10 +7834,10 @@
       <c r="Q29">
         <v>20.507000000000001</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="2">
         <v>0.18659999999999999</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="2">
         <v>2.7469000000000001</v>
       </c>
       <c r="T29">
@@ -7915,10 +7971,10 @@
       <c r="C30">
         <v>20.791899999999998</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2.0196000000000001</v>
       </c>
       <c r="F30">
@@ -7948,7 +8004,7 @@
       <c r="N30">
         <v>134.1</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="5">
         <v>54.665999999999997</v>
       </c>
       <c r="P30">
@@ -7957,10 +8013,10 @@
       <c r="Q30">
         <v>20.791899999999998</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="2">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="2">
         <v>2.0196000000000001</v>
       </c>
       <c r="T30">
@@ -8094,10 +8150,10 @@
       <c r="C31">
         <v>21.085100000000001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1.1956</v>
       </c>
       <c r="F31">
@@ -8127,7 +8183,7 @@
       <c r="N31">
         <v>135.80000000000001</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="5">
         <v>55.005499999999998</v>
       </c>
       <c r="P31">
@@ -8136,10 +8192,10 @@
       <c r="Q31">
         <v>21.085100000000001</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="2">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="2">
         <v>1.1956</v>
       </c>
       <c r="T31">
@@ -8273,10 +8329,10 @@
       <c r="C32">
         <v>21.386600000000001</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>0.2737</v>
       </c>
       <c r="F32">
@@ -8306,7 +8362,7 @@
       <c r="N32">
         <v>137.6</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="5">
         <v>55.363199999999999</v>
       </c>
       <c r="P32">
@@ -8315,10 +8371,10 @@
       <c r="Q32">
         <v>21.386600000000001</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="2">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="2">
         <v>0.2737</v>
       </c>
       <c r="T32">

--- a/docs/Examples/Intro_Example_Petrolog_FC/PetrologCalculations.xlsx
+++ b/docs/Examples/Intro_Example_Petrolog_FC/PetrologCalculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\docs\Examples\Intro_Example_Petrolog_FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4E6D5C-1C89-411A-B32C-78D50329F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D21BD2-7A9D-4711-8B4A-E1347BC5E99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15510" activeTab="2" xr2:uid="{0529BD8F-C88F-4E4E-8348-A2BAF1D1D7E9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="2" xr2:uid="{0529BD8F-C88F-4E4E-8348-A2BAF1D1D7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Petrolog_Output_FRAC_Olv" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t xml:space="preserve"> SiO2_magma</t>
   </si>
@@ -335,12 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve">Olv-Ford83  </t>
-  </si>
-  <si>
-    <t>fo2_calc</t>
-  </si>
-  <si>
-    <t>fo2_e_calc</t>
   </si>
 </sst>
 </file>
@@ -2743,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572120C9-D3FD-4F41-979E-C1B6093D433B}">
-  <dimension ref="A1:BI32"/>
+  <dimension ref="A1:BG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2759,7 +2753,7 @@
     <col min="60" max="60" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2934,14 +2928,8 @@
       <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="2" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>49.901000000000003</v>
       </c>
@@ -3119,16 +3107,8 @@
       <c r="BG2" s="4">
         <v>0.34809027777777773</v>
       </c>
-      <c r="BH2" s="3">
-        <f>10^AW2</f>
-        <v>1.9054607179632456E-8</v>
-      </c>
-      <c r="BI2" s="3">
-        <f>EXP(AW2)</f>
-        <v>4.4386060390287402E-4</v>
-      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>49.997799999999998</v>
       </c>
@@ -3307,7 +3287,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>50.098199999999999</v>
       </c>
@@ -3486,7 +3466,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50.200299999999999</v>
       </c>
@@ -3665,7 +3645,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>50.306199999999997</v>
       </c>
@@ -3844,7 +3824,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50.414000000000001</v>
       </c>
@@ -4023,7 +4003,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50.526000000000003</v>
       </c>
@@ -4202,7 +4182,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50.641300000000001</v>
       </c>
@@ -4381,7 +4361,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50.760100000000001</v>
       </c>
@@ -4560,7 +4540,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50.883600000000001</v>
       </c>
@@ -4739,7 +4719,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>51.01</v>
       </c>
@@ -4918,7 +4898,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>51.1417</v>
       </c>
@@ -5097,7 +5077,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>51.277900000000002</v>
       </c>
@@ -5276,7 +5256,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>51.418799999999997</v>
       </c>
@@ -5455,7 +5435,7 @@
         <v>0.34809027777777773</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>51.566299999999998</v>
       </c>

--- a/docs/Examples/Intro_Example_Petrolog_FC/PetrologCalculations.xlsx
+++ b/docs/Examples/Intro_Example_Petrolog_FC/PetrologCalculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\docs\Examples\Intro_Example_Petrolog_FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D21BD2-7A9D-4711-8B4A-E1347BC5E99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5662617-EBDF-42A2-B9C7-7854D1FA55A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="2" xr2:uid="{0529BD8F-C88F-4E4E-8348-A2BAF1D1D7E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" firstSheet="1" activeTab="2" xr2:uid="{0529BD8F-C88F-4E4E-8348-A2BAF1D1D7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Petrolog_Output_FRAC_Olv" sheetId="4" r:id="rId1"/>
@@ -2618,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90920F11-4703-4152-8398-A8A0BA1D5B50}">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2739,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572120C9-D3FD-4F41-979E-C1B6093D433B}">
   <dimension ref="A1:BG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BJ5" sqref="BJ5"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
